--- a/patient_tracker/subjects_master_list.xlsx
+++ b/patient_tracker/subjects_master_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrafink/Documents/GraduateSchool/SaezLab/resting_state_proj/resting_state_ieeg/patient_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5787BE6-8245-3246-8BA0-F07178B3A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D41100F-7CBA-2446-AB86-3D5321E95887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13240" yWindow="760" windowWidth="17000" windowHeight="17700" xr2:uid="{12D76C30-6929-F540-BF0D-7BFC3B7A4DE9}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patient_tracker/subjects_master_list.xlsx
+++ b/patient_tracker/subjects_master_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrafink/Documents/GraduateSchool/SaezLab/resting_state_proj/resting_state_ieeg/patient_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D41100F-7CBA-2446-AB86-3D5321E95887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BD5BB-7D39-D740-9F82-47A218919A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="760" windowWidth="17000" windowHeight="17700" xr2:uid="{12D76C30-6929-F540-BF0D-7BFC3B7A4DE9}"/>
+    <workbookView xWindow="-24940" yWindow="-680" windowWidth="17000" windowHeight="17700" xr2:uid="{12D76C30-6929-F540-BF0D-7BFC3B7A4DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocess_master" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>MS001</t>
   </si>
@@ -171,13 +171,19 @@
   </si>
   <si>
     <t>R/L hipp ictal</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +204,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,6 +246,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,582 +561,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1BDE6-E830-2F46-AF09-28E2520A46A4}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3">
         <v>512</v>
       </c>
-      <c r="C2" s="3">
-        <v>500</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="E2" s="3">
+        <v>500</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="4">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>512</v>
       </c>
-      <c r="C3" s="3">
-        <v>500</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E3" s="3">
+        <v>500</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D4" s="3">
         <v>512</v>
       </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="E4" s="3">
+        <v>500</v>
+      </c>
+      <c r="F4" s="5">
         <v>0.42222222222222222</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>0.42222222222222222</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="6">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="3">
+        <v>500</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>0.4152777777777778</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="6">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="3">
+        <v>500</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.4604166666666667</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>0.4604166666666667</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C7" s="3">
-        <v>500</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="6">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E7" s="3">
+        <v>500</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.4513888888888889</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>0.4513888888888889</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C8" s="3">
-        <v>500</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="6">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C9" s="3">
-        <v>500</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="6">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="5">
         <v>0.41805555555555557</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>0.41805555555555557</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C10" s="3">
-        <v>500</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.4694444444444445</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C11" s="3">
-        <v>500</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="6">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E11" s="3">
+        <v>500</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.4284722222222222</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>0.42291666666666666</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C12" s="3">
-        <v>500</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.4284722222222222</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>0.4284722222222222</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="3">
-        <v>500</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="6">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="3">
-        <v>500</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="3">
-        <v>500</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.44583333333333336</v>
       </c>
-      <c r="E15" s="4">
+      <c r="G15" s="4">
         <v>0.44583333333333336</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C16" s="3">
-        <v>500</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.42152777777777778</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>0.42152777777777778</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C17" s="3">
-        <v>500</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.42152777777777778</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>0.42152777777777778</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="3">
-        <v>500</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.42222222222222222</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <v>0.42222222222222222</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C19" s="3">
-        <v>500</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="6">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="3">
+        <v>500</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.31527777777777777</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>0.31527777777777777</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="3">
-        <v>500</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="6">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>0.44166666666666665</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="3">
-        <v>500</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="6">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.42430555555555555</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>0.42430555555555555</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
